--- a/Assets/06.Table/DoTable.xlsx
+++ b/Assets/06.Table/DoTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D53EA75-8C7F-4B4E-95C2-FD7F19A8176A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF41855-FF4D-4248-A2B4-21C7AD60B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2490" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="DoTable" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>2.9999999999999998E+77</v>
+        <v>3.9999999999999999E+77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>

--- a/Assets/06.Table/DoTable.xlsx
+++ b/Assets/06.Table/DoTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF41855-FF4D-4248-A2B4-21C7AD60B0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6748FA30-283B-41EF-8EF9-671E148C196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>2업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000업</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +610,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -615,7 +627,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -632,7 +644,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -649,7 +661,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -666,7 +678,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="1">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -683,7 +695,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -700,7 +712,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="1">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -717,7 +729,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -734,7 +746,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="1">
-        <v>5.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -751,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -768,7 +780,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="1">
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -785,7 +797,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -802,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="1">
-        <v>7.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,7 +831,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,7 +848,7 @@
         <v>39</v>
       </c>
       <c r="E17" s="1">
-        <v>8.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,7 +865,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -870,7 +882,58 @@
         <v>39</v>
       </c>
       <c r="E19" s="1">
-        <v>9.5</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
+        <v>9.9999999999999992E+80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4">
+        <v>9.9999999999999996E+81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1E+83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
